--- a/biology/Botanique/Carex_divulsa/Carex_divulsa.xlsx
+++ b/biology/Botanique/Carex_divulsa/Carex_divulsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex divulsa, la Laîche grise ou Carex gris, est une espèce de plantes herbacées de la famille des Cypéracées.
-Selon World Checklist of Selected Plant Families (WCSP)  (27 mai 2012)[1] : Carex divulsa Stokes (1787)
+Selon World Checklist of Selected Plant Families (WCSP)  (27 mai 2012) : Carex divulsa Stokes (1787)
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carex divulsa subsp. leersii (Kneuck.) W.Koch, Mitt. Bad. Landesvereins Naturk. Naturschuz, n.s., 11: 259 (1923).
 Carex divulsa subsp. chabertii (F.W.Schultz) Asch. &amp; Graebn., Syn. Mitteleur. Fl. 2(2): 42 (1902).
